--- a/Sergio-shopping-cart.xlsx
+++ b/Sergio-shopping-cart.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -40,13 +40,16 @@
     <t xml:space="preserve">Show list of products on the home page</t>
   </si>
   <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter products based on their sizes and sort by price</t>
+  </si>
+  <si>
     <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter products based on their sizes and sort by price</t>
   </si>
   <si>
     <t xml:space="preserve">time</t>
@@ -152,6 +155,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -192,14 +196,21 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,12 +247,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,10 +296,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
@@ -300,7 +319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -315,275 +334,275 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="n">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="n">
         <f aca="false">SUM(D2:D15)</f>
         <v>35</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="n">
         <f aca="false">G3*G4</f>
         <v>1050</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>18</v>
+      <c r="H5" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="n">
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="n">
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="n">
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="n">
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="n">
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="n">
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="n">
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Sergio-shopping-cart.xlsx
+++ b/Sergio-shopping-cart.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Show list of products on the home page</t>
   </si>
   <si>
-    <t xml:space="preserve">Active</t>
+    <t xml:space="preserve">Done</t>
   </si>
   <si>
     <t xml:space="preserve">Filter Component</t>
@@ -49,31 +49,31 @@
     <t xml:space="preserve">filter products based on their sizes and sort by price</t>
   </si>
   <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart Component </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show selected items in the cart on the right sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD/Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animated prodcuts list and adding to cart</t>
+  </si>
+  <si>
     <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cart Component </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show selected items in the cart on the right sidebar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD/Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Animation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animated prodcuts list and adding to cart</t>
   </si>
   <si>
     <t xml:space="preserve">Cost</t>
@@ -199,12 +199,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00E676"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -260,19 +266,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,6 +291,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00E676"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -296,10 +362,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
@@ -334,275 +400,275 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <f aca="false">SUM(D2:D15)</f>
         <v>35</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="H4" s="6" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <f aca="false">G3*G4</f>
         <v>1050</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="n">
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="n">
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="n">
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="n">
+      <c r="C9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="n">
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="n">
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="n">
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="n">
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="n">
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="n">
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Sergio-shopping-cart.xlsx
+++ b/Sergio-shopping-cart.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Show list of products on the home page</t>
   </si>
   <si>
-    <t xml:space="preserve">Active</t>
+    <t xml:space="preserve">Done</t>
   </si>
   <si>
     <t xml:space="preserve">Filter Component</t>
@@ -49,31 +49,31 @@
     <t xml:space="preserve">filter products based on their sizes and sort by price</t>
   </si>
   <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart Component </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show selected items in the cart on the right sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD/Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animated prodcuts list and adding to cart</t>
+  </si>
+  <si>
     <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cart Component </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show selected items in the cart on the right sidebar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD/Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Animation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animated prodcuts list and adding to cart</t>
   </si>
   <si>
     <t xml:space="preserve">Cost</t>
@@ -199,12 +199,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00E676"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -247,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -260,19 +266,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -285,6 +295,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00E676"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -296,10 +366,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A4:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
@@ -334,275 +404,275 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <f aca="false">SUM(D2:D15)</f>
         <v>35</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="H4" s="6" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <f aca="false">G3*G4</f>
         <v>1050</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="n">
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="n">
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="n">
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="n">
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="n">
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="n">
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="n">
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="n">
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="n">
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="n">
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Sergio-shopping-cart.xlsx
+++ b/Sergio-shopping-cart.xlsx
@@ -73,34 +73,34 @@
     <t xml:space="preserve">Show checkout form to get buyer data</t>
   </si>
   <si>
+    <t xml:space="preserve">Add Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animated prodcuts list and adding to cart</t>
+  </si>
+  <si>
     <t xml:space="preserve">Active</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Animation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animated prodcuts list and adding to cart</t>
+    <t xml:space="preserve">Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show modal when user click on a product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products Back end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a simple backend to send products to front end</t>
   </si>
   <si>
     <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show modal when user click on a product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Products Back end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create a simple backend to send products to front end</t>
   </si>
   <si>
     <t xml:space="preserve">Add Redux</t>
@@ -153,7 +153,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -201,15 +201,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +221,6 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66BB6A"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -269,7 +256,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,19 +281,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,7 +349,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF66BB6A"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -390,13 +369,14 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,16 +432,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -475,228 +455,228 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="5" t="n">
+        <f aca="false">G3*G4</f>
+        <v>1050</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="e">
-        <f aca="false">#REF!*G5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" s="5" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="n">
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8" t="n">
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8" t="n">
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8" t="n">
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="n">
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8" t="n">
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8" t="n">
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="8" t="n">
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Sergio-shopping-cart.xlsx
+++ b/Sergio-shopping-cart.xlsx
@@ -73,40 +73,40 @@
     <t xml:space="preserve">Show checkout form to get buyer data</t>
   </si>
   <si>
+    <t xml:space="preserve">Add Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animated prodcuts list and adding to cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show modal when user click on a product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products Back end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a simple backend to send products to front end</t>
+  </si>
+  <si>
     <t xml:space="preserve">Active</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Animation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animated prodcuts list and adding to cart</t>
+    <t xml:space="preserve">Add Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create store, initial state and reducer and redux devtool</t>
   </si>
   <si>
     <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show modal when user click on a product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Products Back end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create a simple backend to send products to front end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Redux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create store, initial state and reducer and redux devtool</t>
   </si>
   <si>
     <t xml:space="preserve">Add Redux To Products</t>
@@ -209,7 +209,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +228,6 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66BB6A"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -269,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,19 +288,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,7 +360,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF66BB6A"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -390,13 +380,14 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,16 +443,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -475,80 +466,80 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="G6" s="5" t="n">
+        <f aca="false">G3*G4</f>
+        <v>1050</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="5" t="e">
-        <f aca="false">#REF!*G5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>2</v>
@@ -562,7 +553,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8" t="n">
         <v>3</v>
@@ -576,7 +567,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8" t="n">
         <v>3</v>
@@ -590,7 +581,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8" t="n">
         <v>3</v>
@@ -604,7 +595,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D13" s="8" t="n">
         <v>3</v>
@@ -618,7 +609,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D14" s="8" t="n">
         <v>2</v>
@@ -632,7 +623,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D15" s="8" t="n">
         <v>3</v>

--- a/Sergio-shopping-cart.xlsx
+++ b/Sergio-shopping-cart.xlsx
@@ -263,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -297,6 +297,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,11 +387,11 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -538,7 +542,7 @@
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="8" t="n">

--- a/Sergio-shopping-cart.xlsx
+++ b/Sergio-shopping-cart.xlsx
@@ -387,7 +387,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>

--- a/Sergio-shopping-cart.xlsx
+++ b/Sergio-shopping-cart.xlsx
@@ -97,34 +97,34 @@
     <t xml:space="preserve">create a simple backend to send products to front end</t>
   </si>
   <si>
+    <t xml:space="preserve">Add Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create store, initial state and reducer and redux devtool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Redux To Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move products state to redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Redux To Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move filter state to redux</t>
+  </si>
+  <si>
     <t xml:space="preserve">Active</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Redux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create store, initial state and reducer and redux devtool</t>
+    <t xml:space="preserve">Add Redux To Cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move cart state to redux</t>
   </si>
   <si>
     <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Redux To Products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move products state to redux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Redux To Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move filter state to redux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Redux To Cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move cart state to redux</t>
   </si>
   <si>
     <t xml:space="preserve">Create Order</t>
@@ -153,7 +153,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -199,13 +199,6 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -263,7 +256,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,15 +285,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,10 +369,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
@@ -522,176 +507,176 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="8" t="n">
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="8" t="n">
+      <c r="C14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="8" t="n">
+      <c r="C15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Sergio-shopping-cart.xlsx
+++ b/Sergio-shopping-cart.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -115,22 +115,25 @@
     <t xml:space="preserve">Move filter state to redux</t>
   </si>
   <si>
+    <t xml:space="preserve">done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Redux To Cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move cart state to redux</t>
+  </si>
+  <si>
     <t xml:space="preserve">Active</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Redux To Cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move cart state to redux</t>
+    <t xml:space="preserve">Create Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle frondend end backend of creating an order</t>
   </si>
   <si>
     <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handle frondend end backend of creating an order</t>
   </si>
   <si>
     <t xml:space="preserve">Add Admin Section</t>
@@ -369,10 +372,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
@@ -549,30 +552,30 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -584,7 +587,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>3</v>
@@ -592,13 +595,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>2</v>
@@ -606,13 +609,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>3</v>

--- a/Sergio-shopping-cart.xlsx
+++ b/Sergio-shopping-cart.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t xml:space="preserve">Feature</t>
   </si>
@@ -115,16 +115,10 @@
     <t xml:space="preserve">Move filter state to redux</t>
   </si>
   <si>
-    <t xml:space="preserve">done</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add Redux To Cart</t>
   </si>
   <si>
     <t xml:space="preserve">Move cart state to redux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active</t>
   </si>
   <si>
     <t xml:space="preserve">Create Order</t>
@@ -259,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,10 +275,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,7 +365,7 @@
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
@@ -559,127 +549,127 @@
         <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="D13" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="7" t="n">
+      <c r="C15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Sergio-shopping-cart.xlsx
+++ b/Sergio-shopping-cart.xlsx
@@ -127,13 +127,13 @@
     <t xml:space="preserve">Handle frondend end backend of creating an order</t>
   </si>
   <si>
+    <t xml:space="preserve">Add Admin Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use react-router to create two router for Home and Admin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Admin Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use react-router to create two router for Home and Admin</t>
   </si>
   <si>
     <t xml:space="preserve">Publish on Heroku</t>
@@ -253,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,6 +275,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -362,10 +366,10 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.63"/>
@@ -577,99 +581,99 @@
         <v>34</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="n">
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
